--- a/WEO_Real_GDP.xlsx
+++ b/WEO_Real_GDP.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timjascheck/Desktop/Inflationsprojekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Jascheck\Documents\GitHub\Quaterly-Output-Gap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EAC1EE-46DE-7F4E-856F-DDB315AC7A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF42E512-824C-4832-A6D7-288919D91082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="500" windowWidth="36040" windowHeight="23600" xr2:uid="{303607C7-5B46-444D-A16C-861F910E541A}"/>
+    <workbookView xWindow="-210" yWindow="2355" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{303607C7-5B46-444D-A16C-861F910E541A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="4" r:id="rId1"/>
+    <sheet name="Description" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>International Monetary Fund, World Economic Outlook Database, April 2024</t>
   </si>
@@ -44,12 +44,24 @@
   <si>
     <t>Output Gap</t>
   </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>28th of May 2024</t>
+  </si>
+  <si>
+    <t>https://www.imf.org/en/Publications/WEO/weo-database/2024/April/weo-report?c=134,&amp;s=NGAP_NPGDP,&amp;sy=1991&amp;ey=2024&amp;ssm=0&amp;scsm=1&amp;scc=1&amp;ssd=1&amp;ssc=0&amp;sic=0&amp;sort=country&amp;ds=.&amp;br=1</t>
+  </si>
+  <si>
+    <t>Output gap in percent of potential GDP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,6 +192,20 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -482,7 +508,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -525,53 +551,58 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="42" builtinId="8"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,7 +618,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -905,289 +936,289 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEFBDB8-2294-0E4D-9E0E-3B9720F12212}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B35" sqref="A1:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1991</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2.5739999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1992</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2.5449999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1993</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>-0.66100000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>1994</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>-0.32600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1995</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>-0.70499999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1996</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>-1.2889999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>1997</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>-0.97599999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>1998</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>-0.54300000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>1999</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1.272</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2001</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1.5449999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2002</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2003</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>-1.41</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>2004</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>-1.3360000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>2005</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>-1.8360000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>2006</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>2007</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>2.33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>2008</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>2.4470000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>2009</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>-3.87</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>2010</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>-1.0069999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>2011</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>1.3280000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>2012</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>2013</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>-0.84299999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>2014</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>-0.37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>2015</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>-0.371</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>2016</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>2017</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>2018</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>0.79</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>2019</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>2020</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>-3.1360000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>2021</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>-1.07</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>2022</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>0.755</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>2023</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>-0.47299999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>2024</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>-1.262</v>
       </c>
     </row>
@@ -1198,18 +1229,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F64D61AB-DDC3-CC45-AC68-AAED26EFFA85}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{B12EC54B-A0A4-437C-89D9-BC87FA5F6A05}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>